--- a/721429362_EEX5362_Deliverable 01Dataset.xlsx
+++ b/721429362_EEX5362_Deliverable 01Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddhi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddhi\Downloads\eex5362_mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDFC913-5BDB-48F1-8D82-1C7D65EEEF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D322F49-874C-4FFA-A402-9AC17C60173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bins" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="81">
   <si>
     <t>Bin_ID</t>
   </si>
@@ -238,429 +238,9 @@
     <t>RTE10</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
     <t>Collected_Weight_kg</t>
   </si>
   <si>
-    <t>2025-10-24 02:04:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 06:32:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 06:15:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 18:47:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 03:11:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 13:52:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 05:37:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 09:44:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 05:17:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 18:30:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 19:56:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 01:56:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 20:18:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 04:05:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 20:17:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 19:17:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 22:51:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 04:28:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 02:28:00</t>
-  </si>
-  <si>
-    <t>2025-10-24 02:30:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 11:54:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 09:43:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 20:52:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 22:47:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 09:01:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 09:17:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 23:27:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 08:34:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 21:39:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 11:23:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 15:04:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 03:49:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 01:13:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 14:40:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 12:12:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 19:06:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 08:04:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 00:50:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 22:51:00</t>
-  </si>
-  <si>
-    <t>2025-10-25 05:26:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 16:03:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 10:25:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 00:48:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 02:22:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 13:38:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 00:56:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 09:03:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 10:42:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 19:40:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 17:44:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 14:43:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 10:33:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 18:55:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 21:00:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 10:22:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 22:20:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 17:26:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 09:41:00</t>
-  </si>
-  <si>
-    <t>2025-10-26 03:11:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 07:40:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 08:21:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 14:08:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 16:52:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 14:30:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 01:42:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 04:33:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 20:19:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 17:13:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 05:25:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 08:26:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 21:23:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 04:43:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 02:11:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 14:11:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 19:56:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 16:16:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 14:18:00</t>
-  </si>
-  <si>
-    <t>2025-10-27 07:31:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 00:59:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 15:57:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 13:26:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 21:56:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 01:42:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 11:09:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 14:23:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 18:24:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 22:14:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 00:41:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 22:51:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 12:35:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 10:37:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 23:07:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 02:35:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 23:47:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 19:19:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 22:34:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 14:20:00</t>
-  </si>
-  <si>
-    <t>2025-10-28 21:41:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 06:00:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 18:22:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 09:09:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 15:23:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 22:48:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 06:12:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 09:32:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 00:20:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 13:52:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 22:02:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 10:02:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 22:39:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 11:44:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 12:00:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 07:52:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 18:17:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 07:23:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 20:22:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 07:45:00</t>
-  </si>
-  <si>
-    <t>2025-10-29 04:19:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 23:48:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 00:25:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 11:37:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 03:53:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 19:41:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 19:12:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 19:02:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 07:42:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 10:08:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 21:11:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 21:21:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 08:11:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 13:56:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 01:06:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 02:25:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 22:34:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 18:35:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 02:26:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 19:25:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 23:30:00</t>
-  </si>
-  <si>
     <t>R.M.S.Rathnayake</t>
   </si>
   <si>
@@ -677,6 +257,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kandy City </t>
+  </si>
+  <si>
+    <t>Arrival_Time</t>
+  </si>
+  <si>
+    <t>Service_Time</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -732,11 +321,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1726,7 +1318,7 @@
         <v>0.27</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1743,7 +1335,7 @@
         <v>0.24</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1760,7 +1352,7 @@
         <v>0.34</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1777,7 +1369,7 @@
         <v>0.31</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1794,7 +1386,7 @@
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1452,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>3.04</v>
@@ -1891,7 +1483,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1908,7 +1500,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -2012,2414 +1604,3268 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="2">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="G2">
         <v>23.12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="2">
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="G3">
         <v>13.56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
         <v>17.53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.78263888888888888</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="2">
+        <v>0.22361111111111112</v>
+      </c>
+      <c r="G5">
         <v>9.41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="2">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="G6">
         <v>46.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="G7">
         <v>26.85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.23402777777777778</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="G8">
         <v>22.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="2">
+        <v>0.38472222222222224</v>
+      </c>
+      <c r="G9">
         <v>24.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="2">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="G10">
         <v>13.55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="2">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G11">
         <v>7.74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G12">
         <v>26.46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="G13">
         <v>48.24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="G14">
         <v>8.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.1701388888888889</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="2">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="G15">
         <v>47.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.84513888888888888</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="2">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="G16">
         <v>6.79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="2">
+        <v>0.74027777777777781</v>
+      </c>
+      <c r="G17">
         <v>28.53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.95208333333333328</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="G18">
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>67</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="2">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="G19">
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="2">
+        <v>0.87361111111111112</v>
+      </c>
+      <c r="G20">
         <v>5.42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="2">
+        <v>0.87916666666666665</v>
+      </c>
+      <c r="G21">
         <v>29.19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="2">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G22">
         <v>44.64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="G23">
         <v>12.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G24">
         <v>49.27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.94930555555555551</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>61</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G25">
         <v>41.77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>63</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="2">
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="G26">
         <v>10.19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>63</v>
       </c>
-      <c r="E27">
+      <c r="F27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G27">
         <v>17.68</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>64</v>
       </c>
-      <c r="E28">
+      <c r="F28" s="2">
+        <v>0.17430555555555555</v>
+      </c>
+      <c r="G28">
         <v>33.54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>68</v>
       </c>
-      <c r="E29">
+      <c r="F29" s="2">
+        <v>0.24583333333333332</v>
+      </c>
+      <c r="G29">
         <v>45.74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.90208333333333335</v>
+      </c>
+      <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>62</v>
       </c>
-      <c r="E30">
+      <c r="F30" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="G30">
         <v>24.06</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>61</v>
       </c>
-      <c r="E31">
+      <c r="F31" s="2">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="G31">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>63</v>
       </c>
-      <c r="E32">
+      <c r="F32" s="2">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="G32">
         <v>29.83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>61</v>
       </c>
-      <c r="E33">
+      <c r="F33" s="2">
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="G33">
         <v>8.39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.0694444444444445E-2</v>
+      </c>
+      <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="E34">
+      <c r="F34" s="2">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G34">
         <v>42.56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>63</v>
       </c>
-      <c r="E35">
+      <c r="F35" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="G35">
         <v>10.74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>61</v>
       </c>
-      <c r="E36">
+      <c r="F36" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="G36">
         <v>14.45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.79583333333333328</v>
+      </c>
+      <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>66</v>
       </c>
-      <c r="E37">
+      <c r="F37" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G37">
         <v>44.79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="C38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>63</v>
       </c>
-      <c r="E38">
+      <c r="F38" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="G38">
         <v>43.91</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>67</v>
       </c>
-      <c r="E39">
+      <c r="F39" s="2">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="G39">
         <v>13.07</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.95208333333333328</v>
+      </c>
+      <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>67</v>
       </c>
-      <c r="E40">
+      <c r="F40" s="2">
+        <v>0.70347222222222228</v>
+      </c>
+      <c r="G40">
         <v>43.88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>65</v>
       </c>
-      <c r="E41">
+      <c r="F41" s="2">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="G41">
         <v>40.43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>61</v>
       </c>
-      <c r="E42">
+      <c r="F42" s="2">
+        <v>0.77708333333333335</v>
+      </c>
+      <c r="G42">
         <v>15.01</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>54</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>66</v>
       </c>
-      <c r="E43">
+      <c r="F43" s="2">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="G43">
         <v>41.92</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>64</v>
       </c>
-      <c r="E44">
+      <c r="F44" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="G44">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B45" s="4">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>65</v>
       </c>
-      <c r="E45">
+      <c r="F45" s="2">
+        <v>0.90763888888888888</v>
+      </c>
+      <c r="G45">
         <v>48.51</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>69</v>
       </c>
-      <c r="E46">
+      <c r="F46" s="2">
+        <v>0.92569444444444449</v>
+      </c>
+      <c r="G46">
         <v>35.58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>66</v>
       </c>
-      <c r="E47">
+      <c r="F47" s="2">
+        <v>0.99722222222222223</v>
+      </c>
+      <c r="G47">
         <v>10.19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>70</v>
       </c>
-      <c r="E48">
+      <c r="F48" s="2">
+        <v>2.00277777777778</v>
+      </c>
+      <c r="G48">
         <v>6.72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="C49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>54</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>66</v>
       </c>
-      <c r="E49">
+      <c r="F49" s="2">
+        <v>2.0444444444444398</v>
+      </c>
+      <c r="G49">
         <v>24.64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="C50" t="s">
         <v>31</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>51</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>67</v>
       </c>
-      <c r="E50">
+      <c r="F50" s="2">
+        <v>2.0861111111111099</v>
+      </c>
+      <c r="G50">
         <v>13.55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>61</v>
       </c>
-      <c r="E51">
+      <c r="F51" s="2">
+        <v>2.12777777777778</v>
+      </c>
+      <c r="G51">
         <v>46.65</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>66</v>
       </c>
-      <c r="E52">
+      <c r="F52" s="2">
+        <v>2.1694444444444398</v>
+      </c>
+      <c r="G52">
         <v>8.15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="C53" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>53</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>70</v>
       </c>
-      <c r="E53">
+      <c r="F53" s="2">
+        <v>2.2111111111111099</v>
+      </c>
+      <c r="G53">
         <v>34.85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="C54" t="s">
         <v>14</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>53</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>69</v>
       </c>
-      <c r="E54">
+      <c r="F54" s="2">
+        <v>2.25277777777778</v>
+      </c>
+      <c r="G54">
         <v>35.01</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>65</v>
       </c>
-      <c r="E55">
+      <c r="F55" s="2">
+        <v>2.2944444444444398</v>
+      </c>
+      <c r="G55">
         <v>10.73</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C56" t="s">
         <v>27</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>63</v>
       </c>
-      <c r="E56">
+      <c r="F56" s="2">
+        <v>2.3361111111111099</v>
+      </c>
+      <c r="G56">
         <v>30.61</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="C57" t="s">
         <v>26</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>61</v>
       </c>
-      <c r="E57">
+      <c r="F57" s="2">
+        <v>2.37777777777778</v>
+      </c>
+      <c r="G57">
         <v>17.91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>70</v>
       </c>
-      <c r="E58">
+      <c r="F58" s="2">
+        <v>2.4194444444444398</v>
+      </c>
+      <c r="G58">
         <v>19.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="C59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>64</v>
       </c>
-      <c r="E59">
+      <c r="F59" s="2">
+        <v>2.4611111111111099</v>
+      </c>
+      <c r="G59">
         <v>26.29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="C60" t="s">
         <v>44</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>52</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>62</v>
       </c>
-      <c r="E60">
+      <c r="F60" s="2">
+        <v>2.50277777777778</v>
+      </c>
+      <c r="G60">
         <v>28.2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="C61" t="s">
         <v>36</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>55</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>66</v>
       </c>
-      <c r="E61">
+      <c r="F61" s="2">
+        <v>2.5444444444444398</v>
+      </c>
+      <c r="G61">
         <v>41.83</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="C62" t="s">
         <v>40</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>52</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>65</v>
       </c>
-      <c r="E62">
+      <c r="F62" s="2">
+        <v>2.5861111111111099</v>
+      </c>
+      <c r="G62">
         <v>41.3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>51</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>61</v>
       </c>
-      <c r="E63">
+      <c r="F63" s="2">
+        <v>2.62777777777778</v>
+      </c>
+      <c r="G63">
         <v>49.28</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="C64" t="s">
         <v>35</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>51</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>68</v>
       </c>
-      <c r="E64">
+      <c r="F64" s="2">
+        <v>2.6694444444444398</v>
+      </c>
+      <c r="G64">
         <v>44.88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>67</v>
       </c>
-      <c r="E65">
+      <c r="F65" s="2">
+        <v>2.7111111111111099</v>
+      </c>
+      <c r="G65">
         <v>22.98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C66" t="s">
         <v>16</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>51</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>62</v>
       </c>
-      <c r="E66">
+      <c r="F66" s="2">
+        <v>2.75277777777778</v>
+      </c>
+      <c r="G66">
         <v>14.85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="C67" t="s">
         <v>41</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>55</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>68</v>
       </c>
-      <c r="E67">
+      <c r="F67" s="2">
+        <v>2.7944444444444398</v>
+      </c>
+      <c r="G67">
         <v>30.08</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="C68" t="s">
         <v>45</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>51</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>68</v>
       </c>
-      <c r="E68">
+      <c r="F68" s="2">
+        <v>2.8361111111111099</v>
+      </c>
+      <c r="G68">
         <v>41.06</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C69" t="s">
         <v>37</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>69</v>
       </c>
-      <c r="E69">
+      <c r="F69" s="2">
+        <v>2.87777777777778</v>
+      </c>
+      <c r="G69">
         <v>19.28</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.71736111111111112</v>
+      </c>
+      <c r="C70" t="s">
         <v>40</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>70</v>
       </c>
-      <c r="E70">
+      <c r="F70" s="2">
+        <v>2.9194444444444398</v>
+      </c>
+      <c r="G70">
         <v>24.2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C71" t="s">
         <v>45</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>55</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>68</v>
       </c>
-      <c r="E71">
+      <c r="F71" s="2">
+        <v>2.9611111111111099</v>
+      </c>
+      <c r="G71">
         <v>38.46</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.35138888888888886</v>
+      </c>
+      <c r="C72" t="s">
         <v>29</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>65</v>
       </c>
-      <c r="E72">
+      <c r="F72" s="2">
+        <v>3.00277777777778</v>
+      </c>
+      <c r="G72">
         <v>42.79</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.89097222222222228</v>
+      </c>
+      <c r="C73" t="s">
         <v>22</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>55</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>68</v>
       </c>
-      <c r="E73">
+      <c r="F73" s="2">
+        <v>3.0444444444444398</v>
+      </c>
+      <c r="G73">
         <v>15.77</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C74" t="s">
         <v>28</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>51</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>65</v>
       </c>
-      <c r="E74">
+      <c r="F74" s="2">
+        <v>3.0861111111111099</v>
+      </c>
+      <c r="G74">
         <v>17.23</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="C75" t="s">
         <v>24</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>55</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>62</v>
       </c>
-      <c r="E75">
+      <c r="F75" s="2">
+        <v>3.12777777777778</v>
+      </c>
+      <c r="G75">
         <v>11.79</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B76" s="4">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="C76" t="s">
         <v>26</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>52</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>64</v>
       </c>
-      <c r="E76">
+      <c r="F76" s="2">
+        <v>3.1694444444444398</v>
+      </c>
+      <c r="G76">
         <v>23.67</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="C77" t="s">
         <v>24</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>55</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>68</v>
       </c>
-      <c r="E77">
+      <c r="F77" s="2">
+        <v>3.2111111111111099</v>
+      </c>
+      <c r="G77">
         <v>7.8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="C78" t="s">
         <v>42</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>54</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>67</v>
       </c>
-      <c r="E78">
+      <c r="F78" s="2">
+        <v>3.25277777777778</v>
+      </c>
+      <c r="G78">
         <v>47.57</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>55</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>67</v>
       </c>
-      <c r="E79">
+      <c r="F79" s="2">
+        <v>3.2944444444444398</v>
+      </c>
+      <c r="G79">
         <v>5.27</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="C80" t="s">
         <v>25</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>53</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>67</v>
       </c>
-      <c r="E80">
+      <c r="F80" s="2">
+        <v>3.3361111111111099</v>
+      </c>
+      <c r="G80">
         <v>29.22</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>151</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C81" t="s">
         <v>39</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>55</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>70</v>
       </c>
-      <c r="E81">
+      <c r="F81" s="2">
+        <v>3.37777777777778</v>
+      </c>
+      <c r="G81">
         <v>26.97</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="C82" t="s">
         <v>22</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>54</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>68</v>
       </c>
-      <c r="E82">
+      <c r="F82" s="2">
+        <v>3.4194444444444398</v>
+      </c>
+      <c r="G82">
         <v>22.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="C83" t="s">
         <v>37</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>63</v>
       </c>
-      <c r="E83">
+      <c r="F83" s="2">
+        <v>3.4611111111111099</v>
+      </c>
+      <c r="G83">
         <v>46.38</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="C84" t="s">
         <v>35</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>55</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>61</v>
       </c>
-      <c r="E84">
+      <c r="F84" s="2">
+        <v>3.50277777777778</v>
+      </c>
+      <c r="G84">
         <v>31.64</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C85" t="s">
         <v>37</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>51</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>62</v>
       </c>
-      <c r="E85">
+      <c r="F85" s="2">
+        <v>3.5444444444444398</v>
+      </c>
+      <c r="G85">
         <v>24.29</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B86" s="4">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="C86" t="s">
         <v>43</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>54</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>63</v>
       </c>
-      <c r="E86">
+      <c r="F86" s="2">
+        <v>3.5861111111111099</v>
+      </c>
+      <c r="G86">
         <v>16.71</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="C87" t="s">
         <v>24</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>52</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>68</v>
       </c>
-      <c r="E87">
+      <c r="F87" s="2">
+        <v>3.62777777777778</v>
+      </c>
+      <c r="G87">
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="C88" t="s">
         <v>44</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>65</v>
       </c>
-      <c r="E88">
+      <c r="F88" s="2">
+        <v>3.6694444444444398</v>
+      </c>
+      <c r="G88">
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="C89" t="s">
         <v>11</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>61</v>
       </c>
-      <c r="E89">
+      <c r="F89" s="2">
+        <v>3.7111111111111099</v>
+      </c>
+      <c r="G89">
         <v>7.34</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>52</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>62</v>
       </c>
-      <c r="E90">
+      <c r="F90" s="2">
+        <v>3.75277777777778</v>
+      </c>
+      <c r="G90">
         <v>6.81</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>52</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>64</v>
       </c>
-      <c r="E91">
+      <c r="F91" s="2">
+        <v>3.7944444444444398</v>
+      </c>
+      <c r="G91">
         <v>32.96</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>162</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.95208333333333328</v>
+      </c>
+      <c r="C92" t="s">
         <v>21</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>52</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>68</v>
       </c>
-      <c r="E92">
+      <c r="F92" s="2">
+        <v>3.8361111111111099</v>
+      </c>
+      <c r="G92">
         <v>10.15</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C93" t="s">
         <v>20</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>54</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>65</v>
       </c>
-      <c r="E93">
+      <c r="F93" s="2">
+        <v>3.87777777777778</v>
+      </c>
+      <c r="G93">
         <v>12.55</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="C94" t="s">
         <v>35</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>51</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>63</v>
       </c>
-      <c r="E94">
+      <c r="F94" s="2">
+        <v>3.9194444444444398</v>
+      </c>
+      <c r="G94">
         <v>9.86</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>53</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>70</v>
       </c>
-      <c r="E95">
+      <c r="F95" s="2">
+        <v>3.9611111111111099</v>
+      </c>
+      <c r="G95">
         <v>45.86</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="C96" t="s">
         <v>26</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>54</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>64</v>
       </c>
-      <c r="E96">
+      <c r="F96" s="2">
+        <v>4.00277777777778</v>
+      </c>
+      <c r="G96">
         <v>31.64</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="C97" t="s">
         <v>42</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>52</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>62</v>
       </c>
-      <c r="E97">
+      <c r="F97" s="2">
+        <v>4.0444444444444398</v>
+      </c>
+      <c r="G97">
         <v>39.76</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="C98" t="s">
         <v>43</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>55</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>62</v>
       </c>
-      <c r="E98">
+      <c r="F98" s="2">
+        <v>4.0861111111111104</v>
+      </c>
+      <c r="G98">
         <v>40.22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="C99" t="s">
         <v>25</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>55</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>67</v>
       </c>
-      <c r="E99">
+      <c r="F99" s="2">
+        <v>4.12777777777778</v>
+      </c>
+      <c r="G99">
         <v>21.68</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>53</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>61</v>
       </c>
-      <c r="E100">
+      <c r="F100" s="2">
+        <v>4.1694444444444398</v>
+      </c>
+      <c r="G100">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="C101" t="s">
         <v>14</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>54</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>66</v>
       </c>
-      <c r="E101">
+      <c r="F101" s="2">
+        <v>4.2111111111111104</v>
+      </c>
+      <c r="G101">
         <v>45.12</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>172</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C102" t="s">
         <v>28</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>52</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>67</v>
       </c>
-      <c r="E102">
+      <c r="F102" s="2">
+        <v>4.25277777777778</v>
+      </c>
+      <c r="G102">
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>173</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.76527777777777772</v>
+      </c>
+      <c r="C103" t="s">
         <v>36</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>53</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>70</v>
       </c>
-      <c r="E103">
+      <c r="F103" s="2">
+        <v>4.2944444444444398</v>
+      </c>
+      <c r="G103">
         <v>39.86</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="C104" t="s">
         <v>28</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>54</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>70</v>
       </c>
-      <c r="E104">
+      <c r="F104" s="2">
+        <v>4.3361111111111104</v>
+      </c>
+      <c r="G104">
         <v>19.5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>175</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.64097222222222228</v>
+      </c>
+      <c r="C105" t="s">
         <v>21</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>51</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>65</v>
       </c>
-      <c r="E105">
+      <c r="F105" s="2">
+        <v>4.37777777777778</v>
+      </c>
+      <c r="G105">
         <v>15.97</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>176</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C106" t="s">
         <v>28</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>55</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>70</v>
       </c>
-      <c r="E106">
+      <c r="F106" s="2">
+        <v>4.4194444444444398</v>
+      </c>
+      <c r="G106">
         <v>22.05</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>177</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="C107" t="s">
         <v>6</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>54</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>66</v>
       </c>
-      <c r="E107">
+      <c r="F107" s="2">
+        <v>4.4611111111111104</v>
+      </c>
+      <c r="G107">
         <v>26.94</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>178</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C108" t="s">
         <v>25</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>53</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>66</v>
       </c>
-      <c r="E108">
+      <c r="F108" s="2">
+        <v>4.50277777777778</v>
+      </c>
+      <c r="G108">
         <v>44.61</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C109" t="s">
         <v>38</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>53</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>69</v>
       </c>
-      <c r="E109">
+      <c r="F109" s="2">
+        <v>4.5444444444444398</v>
+      </c>
+      <c r="G109">
         <v>28.25</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>180</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="C110" t="s">
         <v>20</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>51</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>64</v>
       </c>
-      <c r="E110">
+      <c r="F110" s="2">
+        <v>4.5861111111111104</v>
+      </c>
+      <c r="G110">
         <v>26.99</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>181</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.91805555555555551</v>
+      </c>
+      <c r="C111" t="s">
         <v>40</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>52</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>68</v>
       </c>
-      <c r="E111">
+      <c r="F111" s="2">
+        <v>4.62777777777778</v>
+      </c>
+      <c r="G111">
         <v>37.03</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C112" t="s">
         <v>28</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>51</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>62</v>
       </c>
-      <c r="E112">
+      <c r="F112" s="2">
+        <v>4.6694444444444398</v>
+      </c>
+      <c r="G112">
         <v>14.97</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="C113" t="s">
         <v>38</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>52</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>65</v>
       </c>
-      <c r="E113">
+      <c r="F113" s="2">
+        <v>4.7111111111111104</v>
+      </c>
+      <c r="G113">
         <v>31.17</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>184</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="C114" t="s">
         <v>29</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>55</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>69</v>
       </c>
-      <c r="E114">
+      <c r="F114" s="2">
+        <v>4.75277777777778</v>
+      </c>
+      <c r="G114">
         <v>24.15</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>185</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C115" t="s">
         <v>39</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>55</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>66</v>
       </c>
-      <c r="E115">
+      <c r="F115" s="2">
+        <v>4.7944444444444398</v>
+      </c>
+      <c r="G115">
         <v>36.630000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>186</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C116" t="s">
         <v>22</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>53</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>65</v>
       </c>
-      <c r="E116">
+      <c r="F116" s="2">
+        <v>4.8361111111111104</v>
+      </c>
+      <c r="G116">
         <v>10.43</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>187</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.76180555555555551</v>
+      </c>
+      <c r="C117" t="s">
         <v>20</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>53</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>62</v>
       </c>
-      <c r="E117">
+      <c r="F117" s="2">
+        <v>4.87777777777778</v>
+      </c>
+      <c r="G117">
         <v>47.79</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>188</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C118" t="s">
         <v>38</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>52</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>64</v>
       </c>
-      <c r="E118">
+      <c r="F118" s="2">
+        <v>4.9194444444444398</v>
+      </c>
+      <c r="G118">
         <v>38.24</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="C119" t="s">
         <v>22</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>55</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>69</v>
       </c>
-      <c r="E119">
+      <c r="F119" s="2">
+        <v>4.9611111111111104</v>
+      </c>
+      <c r="G119">
         <v>17.73</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C120" t="s">
         <v>14</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>52</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>65</v>
       </c>
-      <c r="E120">
+      <c r="F120" s="2">
+        <v>5.00277777777778</v>
+      </c>
+      <c r="G120">
         <v>21.24</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>191</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="C121" t="s">
         <v>23</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>51</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>69</v>
       </c>
-      <c r="E121">
+      <c r="F121" s="2">
+        <v>5.0444444444444398</v>
+      </c>
+      <c r="G121">
         <v>17.34</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>192</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="C122" t="s">
         <v>9</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>55</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>65</v>
       </c>
-      <c r="E122">
+      <c r="F122" s="2">
+        <v>5.0861111111111104</v>
+      </c>
+      <c r="G122">
         <v>47.48</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C123" t="s">
         <v>36</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>54</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>62</v>
       </c>
-      <c r="E123">
+      <c r="F123" s="2">
+        <v>5.12777777777778</v>
+      </c>
+      <c r="G123">
         <v>30.83</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>194</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C124" t="s">
         <v>29</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>54</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>68</v>
       </c>
-      <c r="E124">
+      <c r="F124" s="2">
+        <v>5.1694444444444398</v>
+      </c>
+      <c r="G124">
         <v>13.3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>53</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>68</v>
       </c>
-      <c r="E125">
+      <c r="F125" s="2">
+        <v>5.2111111111111104</v>
+      </c>
+      <c r="G125">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>196</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="C126" t="s">
         <v>26</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>54</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>62</v>
       </c>
-      <c r="E126">
+      <c r="F126" s="2">
+        <v>5.25277777777778</v>
+      </c>
+      <c r="G126">
         <v>33.33</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>197</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C127" t="s">
         <v>9</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>52</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>63</v>
       </c>
-      <c r="E127">
+      <c r="F127" s="2">
+        <v>5.2944444444444398</v>
+      </c>
+      <c r="G127">
         <v>47.71</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>198</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.79305555555555551</v>
+      </c>
+      <c r="C128" t="s">
         <v>11</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>52</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>62</v>
       </c>
-      <c r="E128">
+      <c r="F128" s="2">
+        <v>5.3361111111111104</v>
+      </c>
+      <c r="G128">
         <v>39.4</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>199</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="C129" t="s">
         <v>35</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>55</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>70</v>
       </c>
-      <c r="E129">
+      <c r="F129" s="2">
+        <v>5.37777777777778</v>
+      </c>
+      <c r="G129">
         <v>39.909999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C130" t="s">
         <v>26</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>54</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>68</v>
       </c>
-      <c r="E130">
+      <c r="F130" s="2">
+        <v>5.4194444444444398</v>
+      </c>
+      <c r="G130">
         <v>43.71</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>201</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="C131" t="s">
         <v>27</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>53</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>70</v>
       </c>
-      <c r="E131">
+      <c r="F131" s="2">
+        <v>5.4611111111111104</v>
+      </c>
+      <c r="G131">
         <v>7.71</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>202</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.88958333333333328</v>
+      </c>
+      <c r="C132" t="s">
         <v>39</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>51</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>64</v>
       </c>
-      <c r="E132">
+      <c r="F132" s="2">
+        <v>5.50277777777778</v>
+      </c>
+      <c r="G132">
         <v>14.5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C133" t="s">
         <v>37</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>51</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>63</v>
       </c>
-      <c r="E133">
+      <c r="F133" s="2">
+        <v>5.5444444444444398</v>
+      </c>
+      <c r="G133">
         <v>12.82</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>204</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="C134" t="s">
         <v>11</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>52</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>61</v>
       </c>
-      <c r="E134">
+      <c r="F134" s="2">
+        <v>5.5861111111111104</v>
+      </c>
+      <c r="G134">
         <v>25.27</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>205</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B135" s="4">
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>54</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>65</v>
       </c>
-      <c r="E135">
+      <c r="F135" s="2">
+        <v>5.62777777777778</v>
+      </c>
+      <c r="G135">
         <v>15.42</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>206</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.10069444444444445</v>
+      </c>
+      <c r="C136" t="s">
         <v>38</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>53</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>68</v>
       </c>
-      <c r="E136">
+      <c r="F136" s="2">
+        <v>5.6694444444444398</v>
+      </c>
+      <c r="G136">
         <v>35.93</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>207</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="C137" t="s">
         <v>45</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>53</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>70</v>
       </c>
-      <c r="E137">
+      <c r="F137" s="2">
+        <v>5.7111111111111104</v>
+      </c>
+      <c r="G137">
         <v>41.18</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>208</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="C138" t="s">
         <v>20</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>54</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>62</v>
       </c>
-      <c r="E138">
+      <c r="F138" s="2">
+        <v>5.75277777777778</v>
+      </c>
+      <c r="G138">
         <v>15.12</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>209</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0.10138888888888889</v>
+      </c>
+      <c r="C139" t="s">
         <v>16</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>53</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>63</v>
       </c>
-      <c r="E139">
+      <c r="F139" s="2">
+        <v>5.7944444444444398</v>
+      </c>
+      <c r="G139">
         <v>7.68</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>210</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="C140" t="s">
         <v>41</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>53</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>70</v>
       </c>
-      <c r="E140">
+      <c r="F140" s="2">
+        <v>5.8361111111111104</v>
+      </c>
+      <c r="G140">
         <v>46.45</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>211</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C141" t="s">
         <v>28</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>51</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>68</v>
       </c>
-      <c r="E141">
+      <c r="F141" s="2">
+        <v>5.87777777777778</v>
+      </c>
+      <c r="G141">
         <v>18.68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <v>45960</v>
       </c>
     </row>
   </sheetData>
